--- a/bokworks-generate-excel/src/main/resources/static/input/20231004/mapping_20230830 ver.2.xlsx
+++ b/bokworks-generate-excel/src/main/resources/static/input/20231004/mapping_20230830 ver.2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0827616B-19DB-4B35-A3E2-55451E2219CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A5B35DCD-EF71-43C1-93C9-86F0BD773EF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16575" windowHeight="7020" xr2:uid="{D5C44313-6D2D-4456-8D0F-097A2833017C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15225" windowHeight="7020" xr2:uid="{D5C44313-6D2D-4456-8D0F-097A2833017C}"/>
   </bookViews>
   <sheets>
     <sheet name="매핑_표준전문개발반" sheetId="1" r:id="rId1"/>
@@ -1718,16 +1718,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E509BCD-C3F4-46E9-A4CB-166211455CD6}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AS83"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="H63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F66" sqref="F66"/>
+      <selection pane="bottomRight" activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1736,11 +1736,11 @@
     <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="55.875" customWidth="1"/>
     <col min="4" max="4" width="10.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="6" width="12.875" style="20" customWidth="1"/>
     <col min="7" max="8" width="8.25" customWidth="1"/>
     <col min="9" max="9" width="10.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="38" customWidth="1"/>
     <col min="11" max="11" width="1.75" style="20" customWidth="1"/>
     <col min="12" max="13" width="6.625" customWidth="1"/>
     <col min="14" max="14" width="5.625" customWidth="1"/>
@@ -1954,7 +1954,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>152</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>152</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>152</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>152</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>152</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>152</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>152</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>152</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>152</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:45" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>152</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>152</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:45" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:45" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>152</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>152</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -4449,7 +4449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>118</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>118</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>118</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>118</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>118</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>118</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>118</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>118</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>118</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>118</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>118</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>118</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -6747,7 +6747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -6841,7 +6841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>118</v>
       </c>
@@ -6901,7 +6901,7 @@
       <c r="AM48" s="7"/>
       <c r="AN48" s="7"/>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
         <v>118</v>
       </c>
@@ -6961,7 +6961,7 @@
       <c r="AM49" s="7"/>
       <c r="AN49" s="7"/>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
         <v>118</v>
       </c>
@@ -7021,7 +7021,7 @@
       <c r="AM50" s="7"/>
       <c r="AN50" s="7"/>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>79</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:45" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:45" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:45" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>79</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:45" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:45" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>79</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>79</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>79</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>79</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -8381,7 +8381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>45</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>45</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>45</v>
       </c>
@@ -10245,7 +10245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>45</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -10751,7 +10751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -10844,7 +10844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -10975,7 +10975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -11106,7 +11106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -11293,14 +11293,20 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A6:AS83" xr:uid="{CD7862A6-BF1E-4C2A-AD9E-8BEA6ED000BF}"/>
+  <autoFilter ref="A6:AS83" xr:uid="{CD7862A6-BF1E-4C2A-AD9E-8BEA6ED000BF}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="pattern 2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:M5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="31" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="28" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
